--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>524826.4267186819</v>
+        <v>569358.7188869761</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12477039.73816156</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7009463.231764769</v>
+        <v>7622616.18504305</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9305723.284927277</v>
+        <v>9004556.243164402</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663202</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="C2" t="n">
-        <v>165.1725371760947</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
     </row>
     <row r="3">
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663202</v>
+        <v>138.261311358952</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X3" t="n">
-        <v>15.40229248514523</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>165.1725371760947</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>32.35016756540399</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>6.396723986041374</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>32.55518202532693</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8580557439332938</v>
+        <v>138.261311358952</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U7" t="n">
-        <v>175.3455350572532</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>29.00708539155833</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>6.396723986041374</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>344.1738577354845</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046388</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>93.00142888846817</v>
+        <v>138.2613113589521</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>49.74150660519143</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.0189589184504</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>244.3876749745561</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.47425054667222</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>73.75934958943081</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>32.23168924578487</v>
       </c>
       <c r="X14" t="n">
-        <v>61.4169936080618</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>45.28085849688354</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>172.6255381703881</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>239.1296984349962</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1897,19 +1897,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>92.47445699814307</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,13 +2061,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>57.56305512390951</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2086,22 +2086,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>30.94422611182895</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>32.23168924578622</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>10.20389322926706</v>
+        <v>96.31572829406566</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>324.3727542084958</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6073936510858</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>18.26879610204008</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>80.7160676450474</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>207.5754705974915</v>
       </c>
       <c r="C26" t="n">
-        <v>81.10098877883078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>63.72703424640825</v>
+        <v>192.2211821748784</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>28.90798465780367</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>148.6151831671111</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>61.60385878691255</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>105.4800788571757</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>136.3896895755416</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>23.34416082770859</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>200.5864956139558</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>94.81275980261439</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>174.7869190180874</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>217.4025801238265</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.5103646250813</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>173.5578851713669</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>337.2533643467237</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486467</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>150.1033339375746</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>208.6902559978735</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>282.2717811533783</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>270.0697021486463</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>52.16264542471268</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>177.6065387483031</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>38.18739105194189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0466642754502</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>37.38100496017476</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181.8429936158256</v>
+        <v>204.4218319897902</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678492</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058936</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079181</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>347.1218190644751</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123823</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>649.4845259985577</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.102348665279</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.102348665279</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.102348665279</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.102348665279</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.102348665279</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652808</v>
+        <v>750.102348665279</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652808</v>
+        <v>560.6825636487944</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487957</v>
+        <v>560.6825636487944</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.2627786323106</v>
+        <v>371.2627786323097</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024206</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772646</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.769091114024</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546597</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>750.102348665279</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652808</v>
+        <v>722.9192922843271</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198772</v>
+        <v>722.9192922843271</v>
       </c>
       <c r="T3" t="n">
-        <v>409.3994882033921</v>
+        <v>583.2614020227594</v>
       </c>
       <c r="U3" t="n">
-        <v>219.9797031869071</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="V3" t="n">
-        <v>219.9797031869071</v>
+        <v>204.4218319897902</v>
       </c>
       <c r="W3" t="n">
-        <v>30.55991817042201</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594235</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745586</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692156</v>
+        <v>373.5399563830971</v>
       </c>
       <c r="N4" t="n">
-        <v>650.9033495638726</v>
+        <v>559.1902876777538</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652808</v>
+        <v>634.3723839608012</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652808</v>
+        <v>750.102348665279</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652808</v>
+        <v>750.102348665279</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652808</v>
+        <v>615.938338957511</v>
       </c>
       <c r="S4" t="n">
-        <v>560.6825636487957</v>
+        <v>615.938338957511</v>
       </c>
       <c r="T4" t="n">
-        <v>393.8416170062758</v>
+        <v>426.5185539410263</v>
       </c>
       <c r="U4" t="n">
-        <v>393.8416170062758</v>
+        <v>237.0987689245417</v>
       </c>
       <c r="V4" t="n">
-        <v>204.4218319897907</v>
+        <v>47.67898390805709</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330562</v>
+        <v>47.67898390805709</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330562</v>
+        <v>15.00204697330558</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>287.4747669672984</v>
+        <v>400.3029543659127</v>
       </c>
       <c r="C5" t="n">
-        <v>287.4747669672984</v>
+        <v>400.3029543659127</v>
       </c>
       <c r="D5" t="n">
-        <v>287.4747669672984</v>
+        <v>400.3029543659127</v>
       </c>
       <c r="E5" t="n">
-        <v>287.4747669672984</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K5" t="n">
-        <v>142.264087905254</v>
+        <v>80.81213159058933</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515905</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030603</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>589.7227393823973</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411526</v>
+        <v>589.7227393823973</v>
       </c>
       <c r="U5" t="n">
-        <v>586.7364457822814</v>
+        <v>589.7227393823973</v>
       </c>
       <c r="V5" t="n">
-        <v>586.7364457822814</v>
+        <v>589.7227393823973</v>
       </c>
       <c r="W5" t="n">
-        <v>553.8524235344764</v>
+        <v>400.3029543659127</v>
       </c>
       <c r="X5" t="n">
-        <v>287.4747669672984</v>
+        <v>400.3029543659127</v>
       </c>
       <c r="Y5" t="n">
-        <v>287.4747669672984</v>
+        <v>400.3029543659127</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>613.200219490875</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C6" t="n">
-        <v>613.200219490875</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D6" t="n">
-        <v>464.2658098296238</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E6" t="n">
-        <v>305.0283548241683</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F6" t="n">
-        <v>158.4937968510533</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699343</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>338.874007230231</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267547</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293598</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560896</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>722.9192922843273</v>
       </c>
       <c r="S6" t="n">
-        <v>1035.652913239145</v>
+        <v>583.2614020227596</v>
       </c>
       <c r="T6" t="n">
-        <v>1035.652913239145</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="U6" t="n">
-        <v>1035.652913239145</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="V6" t="n">
-        <v>1035.652913239145</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W6" t="n">
-        <v>781.4155565109431</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X6" t="n">
-        <v>781.4155565109431</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y6" t="n">
-        <v>781.4155565109431</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>187.8896250884406</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>373.5399563830972</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>471.6341805242513</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>634.3723839608015</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006025</v>
+        <v>746.7254979846269</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407075</v>
+        <v>612.5614882768589</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512189</v>
+        <v>423.1417032603742</v>
       </c>
       <c r="T7" t="n">
-        <v>719.2759572512189</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="U7" t="n">
-        <v>542.1592551731853</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="V7" t="n">
-        <v>287.4747669672984</v>
+        <v>233.7219182438896</v>
       </c>
       <c r="W7" t="n">
-        <v>21.09711040012049</v>
+        <v>44.30213322740491</v>
       </c>
       <c r="X7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>807.0506031836601</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="C8" t="n">
-        <v>807.0506031836601</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="D8" t="n">
-        <v>807.0506031836601</v>
+        <v>393.841617006275</v>
       </c>
       <c r="E8" t="n">
-        <v>807.0506031836601</v>
+        <v>393.841617006275</v>
       </c>
       <c r="F8" t="n">
-        <v>459.4002418346859</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G8" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301904</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232724</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172449</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904655</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904655</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904655</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904655</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="U8" t="n">
-        <v>1914.852662567164</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="V8" t="n">
-        <v>1583.789775223594</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="W8" t="n">
-        <v>1583.789775223594</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="X8" t="n">
-        <v>1583.789775223594</v>
+        <v>400.3029543659128</v>
       </c>
       <c r="Y8" t="n">
-        <v>1193.650443247782</v>
+        <v>400.3029543659128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>835.8427436888391</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C9" t="n">
-        <v>661.3897144077121</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D9" t="n">
-        <v>512.4553047464608</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E9" t="n">
-        <v>353.2178497410052</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F9" t="n">
-        <v>206.6832917678902</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G9" t="n">
-        <v>69.80729798300611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300611</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562335</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K9" t="n">
-        <v>440.9010965631278</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>698.4522321231157</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>1018.359127591625</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1361.141651586257</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O9" t="n">
-        <v>1652.500897840824</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P9" t="n">
-        <v>1867.009313401725</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904655</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904655</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406373</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880349</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="U9" t="n">
-        <v>1740.84400761927</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="V9" t="n">
-        <v>1505.691899387527</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W9" t="n">
-        <v>1251.454542659326</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="X9" t="n">
-        <v>1043.603042453793</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y9" t="n">
-        <v>835.8427436888391</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.5493255318499</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>93.61314260394303</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>93.61314260394303</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>93.61314260394303</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>43.3691965380931</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>58.69630920174243</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246707</v>
+        <v>43.1759045242809</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728887</v>
+        <v>216.063482639416</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640791</v>
+        <v>401.7138139340726</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>587.3641452287293</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152953</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271087</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693648</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R10" t="n">
-        <v>1377.19088246573</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S10" t="n">
-        <v>1178.011396849957</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T10" t="n">
-        <v>954.4075395425804</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="U10" t="n">
-        <v>954.4075395425804</v>
+        <v>393.841617006275</v>
       </c>
       <c r="V10" t="n">
-        <v>954.4075395425804</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="W10" t="n">
-        <v>664.9903695056198</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>664.9903695056198</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.1977903620897</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1422.200456328342</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C11" t="n">
-        <v>1422.200456328342</v>
+        <v>839.8502651939375</v>
       </c>
       <c r="D11" t="n">
-        <v>1063.934757721591</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="E11" t="n">
-        <v>1063.934757721591</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F11" t="n">
-        <v>652.948852931984</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5053,40 +5053,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392464</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y11" t="n">
-        <v>1808.800296392464</v>
+        <v>1514.348043559524</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,31 +5138,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.1533772316425</v>
+        <v>469.8823635670444</v>
       </c>
       <c r="C13" t="n">
-        <v>732.1533772316425</v>
+        <v>300.9461806391375</v>
       </c>
       <c r="D13" t="n">
-        <v>582.0367378193067</v>
+        <v>150.8295412268018</v>
       </c>
       <c r="E13" t="n">
-        <v>434.1236442369136</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F13" t="n">
-        <v>287.2336967390032</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242373</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1424.011591242373</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1134.594421205412</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X13" t="n">
-        <v>1134.594421205412</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y13" t="n">
-        <v>913.8018420618822</v>
+        <v>651.5308283972842</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1619.798686923957</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>1250.836169983545</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>892.5704713767946</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
         <v>892.5704713767946</v>
@@ -5269,61 +5269,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="X14" t="n">
-        <v>2009.938018899768</v>
+        <v>2392.186779586323</v>
       </c>
       <c r="Y14" t="n">
-        <v>1619.798686923957</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="15">
@@ -5333,73 +5333,73 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>872.3234075408147</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C16" t="n">
-        <v>703.3872246129079</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D16" t="n">
-        <v>553.2705852005721</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>405.357491618179</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>258.4675441202686</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,16 +5457,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658019</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U16" t="n">
         <v>1416.425065783662</v>
@@ -5475,13 +5475,13 @@
         <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>872.3234075408147</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X16" t="n">
-        <v>872.3234075408147</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y16" t="n">
-        <v>872.3234075408147</v>
+        <v>697.9541770656748</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912088</v>
@@ -5524,43 +5524,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V17" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W17" t="n">
-        <v>3215.315153136266</v>
+        <v>2325.505862906801</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>1952.040104645721</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
         <v>315.6219318279954</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T19" t="n">
-        <v>1705.527932658019</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U19" t="n">
-        <v>1416.425065783662</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V19" t="n">
-        <v>1358.280565658501</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W19" t="n">
-        <v>1068.863395621541</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X19" t="n">
-        <v>1068.863395621541</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y19" t="n">
-        <v>848.0708164780106</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2005.586939522201</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="C20" t="n">
-        <v>1636.624422581789</v>
+        <v>806.3384156653763</v>
       </c>
       <c r="D20" t="n">
-        <v>1278.358723975039</v>
+        <v>806.3384156653763</v>
       </c>
       <c r="E20" t="n">
-        <v>892.5704713767946</v>
+        <v>806.3384156653763</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>395.3525108757687</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>395.3525108757687</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>97.76891048453587</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W20" t="n">
-        <v>2392.186779586323</v>
+        <v>2325.505862906801</v>
       </c>
       <c r="X20" t="n">
-        <v>2392.186779586323</v>
+        <v>1952.040104645721</v>
       </c>
       <c r="Y20" t="n">
-        <v>2392.186779586323</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="21">
@@ -5822,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5846,13 +5846,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658019</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>1416.425065783661</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>1416.425065783661</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408147</v>
+        <v>1127.0078957467</v>
       </c>
       <c r="X22" t="n">
-        <v>872.3234075408147</v>
+        <v>1127.0078957467</v>
       </c>
       <c r="Y22" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1678.62132134232</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C23" t="n">
-        <v>1678.62132134232</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D23" t="n">
         <v>1320.35562273557</v>
@@ -5986,55 +5986,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912069</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810534</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329462</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V23" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W23" t="n">
-        <v>2277.953133796416</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="X23" t="n">
-        <v>1904.487375535336</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y23" t="n">
-        <v>1678.62132134232</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G24" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>382.1280466398575</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C25" t="n">
-        <v>382.1280466398575</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D25" t="n">
-        <v>382.1280466398575</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574644</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>84.96544582818348</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
         <v>315.6219318279954</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1845.763166628849</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1556.660299754492</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1301.975811548605</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>1012.558641511645</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>784.5690906136274</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.7765114700973</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.7704558796252</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C26" t="n">
-        <v>839.8502651939375</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D26" t="n">
-        <v>481.5845665871869</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E26" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919559</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943747</v>
+        <v>2257.256030805451</v>
       </c>
     </row>
     <row r="27">
@@ -6311,7 +6311,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C28" t="n">
         <v>679.1346335501037</v>
@@ -6414,22 +6414,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1862.923806425454</v>
+        <v>1733.131737810838</v>
       </c>
       <c r="U28" t="n">
-        <v>1573.820939551098</v>
+        <v>1444.028870936481</v>
       </c>
       <c r="V28" t="n">
-        <v>1319.136451345211</v>
+        <v>1189.344382730594</v>
       </c>
       <c r="W28" t="n">
-        <v>1029.71928130825</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="X28" t="n">
-        <v>1029.71928130825</v>
+        <v>899.9272126936338</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.71928130825</v>
+        <v>679.1346335501037</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796265</v>
+        <v>1548.393281286113</v>
       </c>
       <c r="C29" t="n">
-        <v>921.7704558796265</v>
+        <v>1179.430764345701</v>
       </c>
       <c r="D29" t="n">
-        <v>921.7704558796265</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="E29" t="n">
-        <v>921.7704558796265</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F29" t="n">
-        <v>510.784551090019</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>95.71210093501543</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
-        <v>95.71210093501543</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943748</v>
+        <v>1548.393281286113</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031477</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>423.5412774992673</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C31" t="n">
-        <v>423.5412774992673</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6654,19 +6654,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1416.425065783662</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V31" t="n">
-        <v>1161.740577577775</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W31" t="n">
-        <v>872.3234075408147</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X31" t="n">
-        <v>644.3338566427974</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y31" t="n">
-        <v>423.5412774992673</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2071.97538618064</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>958.1473305693546</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
@@ -6712,40 +6712,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y32" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
         <v>618.1564155387305</v>
@@ -6767,46 +6767,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
         <v>2242.828302297192</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
         <v>111.634748879119</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1645.778206672847</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1356.675339798491</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1154.062717966212</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>864.6455479292516</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>636.6559970312343</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>415.8634178877041</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1381.278680221567</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="C35" t="n">
-        <v>1012.316163281155</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D35" t="n">
-        <v>654.0504646744046</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
-        <v>477.498021221791</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
@@ -6940,13 +6940,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2158.0178522615</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y35" t="n">
-        <v>1767.878520285688</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="36">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.5121164321834</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C37" t="n">
-        <v>66.5121164321834</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D37" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E37" t="n">
         <v>66.5121164321834</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V37" t="n">
-        <v>880.2242361621296</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W37" t="n">
-        <v>590.8070661251691</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X37" t="n">
-        <v>362.8175152271517</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y37" t="n">
-        <v>248.1605812624231</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2047.583838282732</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
         <v>589.2106210810553</v>
@@ -7183,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7207,19 +7207,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3072.075344883007</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="V38" t="n">
-        <v>2741.012457539436</v>
+        <v>3150.294826486578</v>
       </c>
       <c r="W38" t="n">
-        <v>2388.243802269322</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X38" t="n">
-        <v>2047.583838282732</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y38" t="n">
-        <v>2047.583838282732</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="39">
@@ -7229,70 +7229,70 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U39" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C40" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
         <v>66.51211643218342</v>
@@ -7365,19 +7365,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W40" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X40" t="n">
-        <v>468.9531604059532</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.1605812624231</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2047.583838282732</v>
+        <v>1032.06112435253</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.62132134232</v>
+        <v>663.0986074121181</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>663.0986074121181</v>
       </c>
       <c r="E41" t="n">
-        <v>934.5673701373257</v>
+        <v>277.3103548138739</v>
       </c>
       <c r="F41" t="n">
-        <v>523.5814653477182</v>
+        <v>277.3103548138739</v>
       </c>
       <c r="G41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V41" t="n">
-        <v>3072.075344883007</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W41" t="n">
-        <v>2719.306689612893</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X41" t="n">
-        <v>2719.306689612893</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y41" t="n">
-        <v>2434.183678346854</v>
+        <v>1418.660964416651</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7508,7 +7508,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218342</v>
+        <v>696.2582702654239</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7602,19 +7602,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1241.044369546818</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V43" t="n">
-        <v>986.3598813409312</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W43" t="n">
-        <v>696.9427113039706</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="X43" t="n">
-        <v>468.9531604059532</v>
+        <v>917.050849408954</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>696.2582702654239</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C44" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G44" t="n">
         <v>406.0926155839475</v>
@@ -7654,10 +7654,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y44" t="n">
-        <v>1976.204921733553</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C46" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D46" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
@@ -7836,22 +7836,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1697.850073046456</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1408.747206172099</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1154.062717966212</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W46" t="n">
-        <v>864.6455479292516</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X46" t="n">
-        <v>636.6559970312343</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.8634178877041</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457086</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711119</v>
+        <v>163.8604018711115</v>
       </c>
       <c r="O4" t="n">
-        <v>98.86065188594108</v>
+        <v>74.60115408961717</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709379</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761153</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8376,16 +8376,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>75.41988959484645</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
-        <v>196.2184492047227</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721423</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>42.56275186471065</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-1.293445533643231e-12</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971604</v>
+        <v>217.5613044873862</v>
       </c>
       <c r="C2" t="n">
-        <v>200.1003545949128</v>
+        <v>177.7473046046878</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368126</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510933</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121488</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897334</v>
+        <v>198.7123514897338</v>
       </c>
     </row>
     <row r="3">
@@ -22646,7 +22646,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714232</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681015</v>
+        <v>57.14828643304926</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377072</v>
+        <v>38.33818124377117</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310552</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945994</v>
+        <v>64.16939599459985</v>
       </c>
       <c r="X3" t="n">
-        <v>190.3706927183322</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22722,13 +22722,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553079</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,28 +22749,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845744</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>19.254668629176</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>58.54713631400534</v>
+        <v>36.19408632378034</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713053</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750779</v>
+        <v>64.61205615750825</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027079</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>193.3594878236332</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>375.5336460862204</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G5" t="n">
-        <v>412.83417464571</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776185</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>316.6857866920861</v>
+        <v>161.7153815510932</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,19 +22913,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>146.2918796682655</v>
+        <v>11.50893333199764</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>7.884010625681441</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>38.33818124377112</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>64.1693959945998</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22992,22 +22992,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>19.25466862917642</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>36.19408632378028</v>
       </c>
       <c r="U7" t="n">
-        <v>110.9130954454243</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>98.99741117027119</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>196.7025699974788</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>348.2863176346416</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>62.70218800622695</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.1636065770829</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>25.91829388988691</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,25 +23102,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>132.8191450796004</v>
+        <v>87.60245705113883</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>95.67954141773981</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>58.54713631400557</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>98.73949432713042</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>98.99741117027114</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>80.25393285255717</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>166.5340506788973</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>62.95971209989695</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>92.26645866959741</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>317.0092794716281</v>
       </c>
       <c r="X14" t="n">
-        <v>308.3141070704072</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>120.7449497621447</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>45.95911518170672</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>143.6041432284844</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>277.256643680326</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>194.5745881999185</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23974,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>10.63270366109706</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>317.0092794716268</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.3807601228277</v>
+        <v>122.2689250580291</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>45.35834646997318</v>
       </c>
       <c r="Y23" t="n">
-        <v>162.6305450049678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>147.7570121569881</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,10 +24414,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.8328816311218</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>175.1583710659891</v>
       </c>
       <c r="C26" t="n">
-        <v>284.1719029921768</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>155.8219150297609</v>
+        <v>27.32776710129085</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>12.66894511512228</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>237.6227554889425</v>
       </c>
     </row>
     <row r="30">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>87.0116142312998</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>146.6575644666523</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>228.8832021954659</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>358.5862092445532</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>51.5511477098722</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>270.4601319683932</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>207.1434510541743</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>69.12041821276449</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>77.43728678753504</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>32.47773633174529</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,13 +25557,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696614</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>75.60632145146252</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>202.2314696555799</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>103.9661575026753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>16.14213605696659</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>173.5470099643245</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>229.2695069934083</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>348.0505476041117</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>74.78531590648714</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>182.1679443159944</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>472696.0301089772</v>
+        <v>472696.0301089768</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>536219.3756474751</v>
+        <v>472696.0301089769</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>732374.0231196638</v>
+        <v>472696.0301089766</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460698</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460695</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>880521.5937460698</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>880521.5937460696</v>
+        <v>880521.5937460697</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>880521.5937460698</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>880521.5937460698</v>
+        <v>880521.5937460697</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>880521.5937460696</v>
+        <v>880521.5937460697</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>880521.5937460697</v>
+        <v>880521.5937460696</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>880521.5937460696</v>
+        <v>880521.5937460697</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>171419.5356187815</v>
       </c>
       <c r="C2" t="n">
-        <v>193768.2521372568</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="D2" t="n">
-        <v>265569.8802231802</v>
+        <v>171419.5356187815</v>
       </c>
       <c r="E2" t="n">
+        <v>323947.2440223746</v>
+      </c>
+      <c r="F2" t="n">
         <v>323947.2440223744</v>
-      </c>
-      <c r="F2" t="n">
-        <v>323947.2440223745</v>
       </c>
       <c r="G2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="H2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223742</v>
       </c>
       <c r="I2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="J2" t="n">
         <v>323947.2440223746</v>
-      </c>
-      <c r="J2" t="n">
-        <v>323947.2440223743</v>
       </c>
       <c r="K2" t="n">
         <v>323947.2440223745</v>
       </c>
       <c r="L2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="M2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="N2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="M2" t="n">
-        <v>323947.2440223743</v>
-      </c>
-      <c r="N2" t="n">
-        <v>323947.2440223746</v>
-      </c>
       <c r="O2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>84336.10254477379</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>291724.1809599833</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669092</v>
+        <v>627134.6436336674</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854468</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>19608.42855040622</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932032</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.3526160859</v>
+        <v>160456.4418678773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12732.5212819199</v>
+        <v>12732.52128191989</v>
       </c>
       <c r="C4" t="n">
-        <v>16333.27348544815</v>
+        <v>12732.52128191989</v>
       </c>
       <c r="D4" t="n">
-        <v>19973.84716017452</v>
+        <v>12732.52128191989</v>
       </c>
       <c r="E4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="F4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="G4" t="n">
         <v>11600.2349971284</v>
       </c>
       <c r="H4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="I4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712833</v>
       </c>
       <c r="J4" t="n">
         <v>11600.2349971284</v>
@@ -26469,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.0818558723</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.34056139328</v>
@@ -26508,7 +26508,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-501159.6520201637</v>
+        <v>-490806.0849380539</v>
       </c>
       <c r="C6" t="n">
-        <v>19723.35771601718</v>
+        <v>100550.8175827915</v>
       </c>
       <c r="D6" t="n">
-        <v>-137875.9118824475</v>
+        <v>100550.8175827915</v>
       </c>
       <c r="E6" t="n">
-        <v>-41466.26660111755</v>
+        <v>-389441.5940996206</v>
       </c>
       <c r="F6" t="n">
-        <v>234564.4791657918</v>
+        <v>237693.0495340466</v>
       </c>
       <c r="G6" t="n">
-        <v>234564.4791657917</v>
+        <v>237693.0495340466</v>
       </c>
       <c r="H6" t="n">
-        <v>234564.4791657917</v>
+        <v>237693.0495340467</v>
       </c>
       <c r="I6" t="n">
-        <v>234564.4791657918</v>
+        <v>237693.0495340465</v>
       </c>
       <c r="J6" t="n">
-        <v>185499.5344372469</v>
+        <v>188628.1048055022</v>
       </c>
       <c r="K6" t="n">
-        <v>214956.0506153856</v>
+        <v>237693.0495340467</v>
       </c>
       <c r="L6" t="n">
-        <v>164103.6722564714</v>
+        <v>237693.0495340467</v>
       </c>
       <c r="M6" t="n">
-        <v>162473.1265497057</v>
+        <v>77236.6076661694</v>
       </c>
       <c r="N6" t="n">
-        <v>234564.4791657918</v>
+        <v>237693.0495340466</v>
       </c>
       <c r="O6" t="n">
-        <v>234564.479165792</v>
+        <v>237693.0495340468</v>
       </c>
       <c r="P6" t="n">
-        <v>234564.4791657917</v>
+        <v>237693.0495340464</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694783</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376848</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261638</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>65.58507285657333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>239.6556507682066</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556135</v>
+        <v>541.3067596803935</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>76.18829283518593</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>278.4010767246576</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761288</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518627</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246576</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761284</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518593</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246576</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761288</v>
+        <v>643.8758682359726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>256.150985140503</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425036</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I5" t="n">
-        <v>95.1692700235088</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016252</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459292</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986831</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658379</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702307</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990948</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458304</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542725</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480712</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736545</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944814</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020923</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582789</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779068</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M7" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919121</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350555</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715651</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508278</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958416</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934783</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190908</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699496</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452749</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076063</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913579</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730381</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475634</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526972</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619436</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017478</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368737</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.582157642014</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153094</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978881</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32256,7 +32256,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781671</v>
       </c>
       <c r="R17" t="n">
         <v>275.1987363563569</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987485</v>
@@ -32578,10 +32578,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33031,7 +33031,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33262,10 +33262,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606288</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062408</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="O4" t="n">
-        <v>100.2010091933417</v>
+        <v>75.94151139701766</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217709</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664467</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468045</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186565</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020922</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441512</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716377</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117358</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659562</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649638</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N7" t="n">
-        <v>213.581156752698</v>
+        <v>99.08507489005468</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496826</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808909</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662056</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.155628697404</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109606</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093964</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>354.8964964217217</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818059</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510198</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440064</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332332</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>304.4954681847784</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348417</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231599</v>
+        <v>28.45844197068213</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971899</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900913</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212426</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735795</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748829</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349601</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037176</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
         <v>159.233896612727</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687107</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36679,7 +36679,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
